--- a/data/NASCseq.xlsx
+++ b/data/NASCseq.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\文档\NetSarang Computer\7\Xftp\Temporary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EBD6DC-C94A-4D25-892F-11BF6906E56B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48388FA-46A5-49FA-9723-B1D3A6E85BD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="495" windowWidth="28800" windowHeight="16455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1563,8 +1563,8 @@
   <dimension ref="A1:K332"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K324" sqref="K324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1647,6 +1647,7 @@
       <c r="J2" s="6">
         <v>1</v>
       </c>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1679,6 +1680,7 @@
       <c r="J3" s="6">
         <v>1</v>
       </c>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1711,6 +1713,7 @@
       <c r="J4" s="6">
         <v>1</v>
       </c>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1743,6 +1746,7 @@
       <c r="J5" s="6">
         <v>1</v>
       </c>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1775,6 +1779,7 @@
       <c r="J6" s="6">
         <v>1</v>
       </c>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1807,6 +1812,7 @@
       <c r="J7" s="6">
         <v>1</v>
       </c>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1839,6 +1845,7 @@
       <c r="J8" s="6">
         <v>1</v>
       </c>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1871,6 +1878,7 @@
       <c r="J9" s="6">
         <v>1</v>
       </c>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1903,6 +1911,7 @@
       <c r="J10" s="6">
         <v>1</v>
       </c>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1935,6 +1944,7 @@
       <c r="J11" s="6">
         <v>1</v>
       </c>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1967,6 +1977,7 @@
       <c r="J12" s="6">
         <v>1</v>
       </c>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1999,6 +2010,7 @@
       <c r="J13" s="6">
         <v>1</v>
       </c>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -2031,6 +2043,7 @@
       <c r="J14" s="6">
         <v>1</v>
       </c>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -2063,6 +2076,7 @@
       <c r="J15" s="6">
         <v>1</v>
       </c>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -2095,8 +2109,9 @@
       <c r="J16" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>348</v>
       </c>
@@ -2127,8 +2142,9 @@
       <c r="J17" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>348</v>
       </c>
@@ -2159,8 +2175,9 @@
       <c r="J18" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>348</v>
       </c>
@@ -2191,8 +2208,9 @@
       <c r="J19" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>348</v>
       </c>
@@ -2223,8 +2241,9 @@
       <c r="J20" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>348</v>
       </c>
@@ -2255,8 +2274,9 @@
       <c r="J21" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>348</v>
       </c>
@@ -2287,8 +2307,9 @@
       <c r="J22" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>348</v>
       </c>
@@ -2319,8 +2340,9 @@
       <c r="J23" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>348</v>
       </c>
@@ -2351,8 +2373,9 @@
       <c r="J24" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>348</v>
       </c>
@@ -2383,8 +2406,9 @@
       <c r="J25" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>348</v>
       </c>
@@ -2415,8 +2439,9 @@
       <c r="J26" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>348</v>
       </c>
@@ -2447,8 +2472,9 @@
       <c r="J27" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>348</v>
       </c>
@@ -2479,8 +2505,9 @@
       <c r="J28" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>348</v>
       </c>
@@ -2511,8 +2538,9 @@
       <c r="J29" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>348</v>
       </c>
@@ -2543,8 +2571,9 @@
       <c r="J30" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>348</v>
       </c>
@@ -2575,8 +2604,9 @@
       <c r="J31" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>348</v>
       </c>
@@ -2607,8 +2637,9 @@
       <c r="J32" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>348</v>
       </c>
@@ -2639,8 +2670,9 @@
       <c r="J33" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>348</v>
       </c>
@@ -2671,8 +2703,9 @@
       <c r="J34" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>348</v>
       </c>
@@ -2703,8 +2736,9 @@
       <c r="J35" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>348</v>
       </c>
@@ -2735,8 +2769,9 @@
       <c r="J36" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>348</v>
       </c>
@@ -2767,8 +2802,9 @@
       <c r="J37" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>348</v>
       </c>
@@ -2799,8 +2835,9 @@
       <c r="J38" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>348</v>
       </c>
@@ -2831,8 +2868,9 @@
       <c r="J39" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>348</v>
       </c>
@@ -2863,8 +2901,9 @@
       <c r="J40" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>348</v>
       </c>
@@ -2895,8 +2934,9 @@
       <c r="J41" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>348</v>
       </c>
@@ -2927,8 +2967,9 @@
       <c r="J42" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>348</v>
       </c>
@@ -2959,8 +3000,9 @@
       <c r="J43" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>348</v>
       </c>
@@ -2991,8 +3033,9 @@
       <c r="J44" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>348</v>
       </c>
@@ -3023,8 +3066,9 @@
       <c r="J45" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>348</v>
       </c>
@@ -3055,8 +3099,9 @@
       <c r="J46" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>348</v>
       </c>
@@ -3087,8 +3132,9 @@
       <c r="J47" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>349</v>
       </c>
@@ -3119,8 +3165,9 @@
       <c r="J48" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>351</v>
       </c>
@@ -3151,8 +3198,9 @@
       <c r="J49" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>351</v>
       </c>
@@ -3183,8 +3231,9 @@
       <c r="J50" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>350</v>
       </c>
@@ -3215,8 +3264,9 @@
       <c r="J51" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>350</v>
       </c>
@@ -3247,8 +3297,9 @@
       <c r="J52" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>350</v>
       </c>
@@ -3279,8 +3330,9 @@
       <c r="J53" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>350</v>
       </c>
@@ -3311,8 +3363,9 @@
       <c r="J54" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>350</v>
       </c>
@@ -3343,8 +3396,9 @@
       <c r="J55" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>350</v>
       </c>
@@ -3375,8 +3429,9 @@
       <c r="J56" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>350</v>
       </c>
@@ -3407,8 +3462,9 @@
       <c r="J57" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>350</v>
       </c>
@@ -3439,8 +3495,9 @@
       <c r="J58" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>350</v>
       </c>
@@ -3471,8 +3528,9 @@
       <c r="J59" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>350</v>
       </c>
@@ -3503,8 +3561,9 @@
       <c r="J60" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>350</v>
       </c>
@@ -3535,8 +3594,9 @@
       <c r="J61" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>350</v>
       </c>
@@ -3567,8 +3627,9 @@
       <c r="J62" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>350</v>
       </c>
@@ -3599,8 +3660,9 @@
       <c r="J63" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>350</v>
       </c>
@@ -3631,8 +3693,9 @@
       <c r="J64" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" s="7"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>350</v>
       </c>
@@ -3663,8 +3726,9 @@
       <c r="J65" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" s="7"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>350</v>
       </c>
@@ -3695,8 +3759,9 @@
       <c r="J66" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="7"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>350</v>
       </c>
@@ -3727,8 +3792,9 @@
       <c r="J67" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>350</v>
       </c>
@@ -3759,8 +3825,9 @@
       <c r="J68" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="7"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>350</v>
       </c>
@@ -3791,8 +3858,9 @@
       <c r="J69" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="7"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>350</v>
       </c>
@@ -3823,8 +3891,9 @@
       <c r="J70" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>350</v>
       </c>
@@ -3855,8 +3924,9 @@
       <c r="J71" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>350</v>
       </c>
@@ -3887,8 +3957,9 @@
       <c r="J72" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="7"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>350</v>
       </c>
@@ -3919,8 +3990,9 @@
       <c r="J73" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>350</v>
       </c>
@@ -3951,8 +4023,9 @@
       <c r="J74" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="7"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>350</v>
       </c>
@@ -3983,8 +4056,9 @@
       <c r="J75" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>350</v>
       </c>
@@ -4015,8 +4089,9 @@
       <c r="J76" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>350</v>
       </c>
@@ -4047,8 +4122,9 @@
       <c r="J77" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" s="7"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>350</v>
       </c>
@@ -4079,8 +4155,9 @@
       <c r="J78" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>350</v>
       </c>
@@ -4111,8 +4188,9 @@
       <c r="J79" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>350</v>
       </c>
@@ -4143,8 +4221,9 @@
       <c r="J80" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="7"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>350</v>
       </c>
@@ -4175,8 +4254,9 @@
       <c r="J81" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="7"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>350</v>
       </c>
@@ -4207,8 +4287,9 @@
       <c r="J82" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="7"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>350</v>
       </c>
@@ -4239,8 +4320,9 @@
       <c r="J83" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="7"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>350</v>
       </c>
@@ -4271,8 +4353,9 @@
       <c r="J84" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="7"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>350</v>
       </c>
@@ -4303,8 +4386,9 @@
       <c r="J85" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" s="7"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>350</v>
       </c>
@@ -4335,8 +4419,9 @@
       <c r="J86" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="7"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>350</v>
       </c>
@@ -4367,8 +4452,9 @@
       <c r="J87" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" s="7"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>350</v>
       </c>
@@ -4399,8 +4485,9 @@
       <c r="J88" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="7"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>350</v>
       </c>
@@ -4431,8 +4518,9 @@
       <c r="J89" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="7"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>350</v>
       </c>
@@ -4463,8 +4551,9 @@
       <c r="J90" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" s="7"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>350</v>
       </c>
@@ -4495,8 +4584,9 @@
       <c r="J91" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" s="7"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>350</v>
       </c>
@@ -4527,8 +4617,9 @@
       <c r="J92" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" s="7"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>350</v>
       </c>
@@ -4559,8 +4650,9 @@
       <c r="J93" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="7"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>350</v>
       </c>
@@ -4591,8 +4683,9 @@
       <c r="J94" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" s="7"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>350</v>
       </c>
@@ -4623,8 +4716,9 @@
       <c r="J95" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" s="7"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>350</v>
       </c>
@@ -4655,8 +4749,9 @@
       <c r="J96" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="7"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>350</v>
       </c>
@@ -4687,8 +4782,9 @@
       <c r="J97" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" s="7"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>350</v>
       </c>
@@ -4719,8 +4815,9 @@
       <c r="J98" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" s="7"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>350</v>
       </c>
@@ -4751,8 +4848,9 @@
       <c r="J99" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" s="7"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>350</v>
       </c>
@@ -4783,8 +4881,9 @@
       <c r="J100" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="7"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>350</v>
       </c>
@@ -4815,8 +4914,9 @@
       <c r="J101" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" s="7"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>350</v>
       </c>
@@ -4847,8 +4947,9 @@
       <c r="J102" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="7"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>350</v>
       </c>
@@ -4879,8 +4980,9 @@
       <c r="J103" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" s="7"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>350</v>
       </c>
@@ -4911,8 +5013,9 @@
       <c r="J104" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" s="7"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>350</v>
       </c>
@@ -4943,8 +5046,9 @@
       <c r="J105" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105" s="7"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>350</v>
       </c>
@@ -4975,8 +5079,9 @@
       <c r="J106" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106" s="7"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>350</v>
       </c>
@@ -5007,8 +5112,9 @@
       <c r="J107" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" s="7"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>350</v>
       </c>
@@ -5039,8 +5145,9 @@
       <c r="J108" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108" s="7"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>350</v>
       </c>
@@ -5071,8 +5178,9 @@
       <c r="J109" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109" s="7"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>350</v>
       </c>
@@ -5103,8 +5211,9 @@
       <c r="J110" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110" s="7"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>350</v>
       </c>
@@ -5135,8 +5244,9 @@
       <c r="J111" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" s="7"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>350</v>
       </c>
@@ -5167,8 +5277,9 @@
       <c r="J112" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112" s="7"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>350</v>
       </c>
@@ -5199,8 +5310,9 @@
       <c r="J113" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" s="7"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>350</v>
       </c>
@@ -5231,8 +5343,9 @@
       <c r="J114" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114" s="7"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>350</v>
       </c>
@@ -5263,8 +5376,9 @@
       <c r="J115" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115" s="7"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>350</v>
       </c>
@@ -5295,8 +5409,9 @@
       <c r="J116" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116" s="7"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>350</v>
       </c>
@@ -5327,8 +5442,9 @@
       <c r="J117" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117" s="7"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>350</v>
       </c>
@@ -5359,8 +5475,9 @@
       <c r="J118" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118" s="7"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>350</v>
       </c>
@@ -5391,8 +5508,9 @@
       <c r="J119" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119" s="7"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>351</v>
       </c>
@@ -5423,8 +5541,9 @@
       <c r="J120" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120" s="7"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>353</v>
       </c>
@@ -5455,8 +5574,9 @@
       <c r="J121" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121" s="8"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>353</v>
       </c>
@@ -5487,8 +5607,9 @@
       <c r="J122" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122" s="8"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>352</v>
       </c>
@@ -5519,8 +5640,9 @@
       <c r="J123" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123" s="8"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>352</v>
       </c>
@@ -5551,8 +5673,9 @@
       <c r="J124" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124" s="8"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>352</v>
       </c>
@@ -5583,8 +5706,9 @@
       <c r="J125" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125" s="8"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>352</v>
       </c>
@@ -5615,8 +5739,9 @@
       <c r="J126" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126" s="8"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>352</v>
       </c>
@@ -5647,8 +5772,9 @@
       <c r="J127" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127" s="8"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>352</v>
       </c>
@@ -5679,8 +5805,9 @@
       <c r="J128" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128" s="8"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>352</v>
       </c>
@@ -5711,8 +5838,9 @@
       <c r="J129" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129" s="8"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>352</v>
       </c>
@@ -5743,8 +5871,9 @@
       <c r="J130" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130" s="8"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>352</v>
       </c>
@@ -5775,8 +5904,9 @@
       <c r="J131" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131" s="8"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>352</v>
       </c>
@@ -5807,8 +5937,9 @@
       <c r="J132" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132" s="8"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>352</v>
       </c>
@@ -5839,8 +5970,9 @@
       <c r="J133" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133" s="8"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>352</v>
       </c>
@@ -5871,8 +6003,9 @@
       <c r="J134" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134" s="8"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>352</v>
       </c>
@@ -5903,8 +6036,9 @@
       <c r="J135" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135" s="8"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>352</v>
       </c>
@@ -5935,8 +6069,9 @@
       <c r="J136" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K136" s="8"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>352</v>
       </c>
@@ -5967,8 +6102,9 @@
       <c r="J137" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137" s="8"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>352</v>
       </c>
@@ -5999,8 +6135,9 @@
       <c r="J138" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138" s="8"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>352</v>
       </c>
@@ -6031,8 +6168,9 @@
       <c r="J139" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139" s="8"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>352</v>
       </c>
@@ -6063,8 +6201,9 @@
       <c r="J140" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K140" s="8"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>352</v>
       </c>
@@ -6095,8 +6234,9 @@
       <c r="J141" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141" s="8"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>352</v>
       </c>
@@ -6127,8 +6267,9 @@
       <c r="J142" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142" s="8"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>352</v>
       </c>
@@ -6159,8 +6300,9 @@
       <c r="J143" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143" s="8"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>352</v>
       </c>
@@ -6191,8 +6333,9 @@
       <c r="J144" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144" s="8"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>355</v>
       </c>
@@ -6221,8 +6364,9 @@
         <v>343</v>
       </c>
       <c r="J145" s="3"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145" s="3"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>355</v>
       </c>
@@ -6251,8 +6395,9 @@
         <v>343</v>
       </c>
       <c r="J146" s="3"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K146" s="3"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>354</v>
       </c>
@@ -6281,8 +6426,9 @@
         <v>343</v>
       </c>
       <c r="J147" s="3"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K147" s="3"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>354</v>
       </c>
@@ -6311,8 +6457,9 @@
         <v>343</v>
       </c>
       <c r="J148" s="3"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K148" s="3"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>354</v>
       </c>
@@ -6341,8 +6488,9 @@
         <v>343</v>
       </c>
       <c r="J149" s="3"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K149" s="3"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>354</v>
       </c>
@@ -6371,8 +6519,9 @@
         <v>343</v>
       </c>
       <c r="J150" s="3"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K150" s="3"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>354</v>
       </c>
@@ -6401,8 +6550,9 @@
         <v>343</v>
       </c>
       <c r="J151" s="3"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K151" s="3"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>354</v>
       </c>
@@ -6431,8 +6581,9 @@
         <v>343</v>
       </c>
       <c r="J152" s="3"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K152" s="3"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>354</v>
       </c>
@@ -6461,8 +6612,9 @@
         <v>343</v>
       </c>
       <c r="J153" s="3"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K153" s="3"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>354</v>
       </c>
@@ -6491,8 +6643,9 @@
         <v>343</v>
       </c>
       <c r="J154" s="3"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K154" s="3"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>354</v>
       </c>
@@ -6521,8 +6674,9 @@
         <v>343</v>
       </c>
       <c r="J155" s="3"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K155" s="3"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>354</v>
       </c>
@@ -6551,8 +6705,9 @@
         <v>343</v>
       </c>
       <c r="J156" s="3"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K156" s="3"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>354</v>
       </c>
@@ -6581,8 +6736,9 @@
         <v>343</v>
       </c>
       <c r="J157" s="3"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K157" s="3"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>354</v>
       </c>
@@ -6611,8 +6767,9 @@
         <v>343</v>
       </c>
       <c r="J158" s="3"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K158" s="3"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>354</v>
       </c>
@@ -6641,8 +6798,9 @@
         <v>343</v>
       </c>
       <c r="J159" s="3"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K159" s="3"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>354</v>
       </c>
@@ -6671,8 +6829,9 @@
         <v>343</v>
       </c>
       <c r="J160" s="3"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K160" s="3"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>354</v>
       </c>
@@ -6701,8 +6860,9 @@
         <v>343</v>
       </c>
       <c r="J161" s="3"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K161" s="3"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>354</v>
       </c>
@@ -6731,8 +6891,9 @@
         <v>343</v>
       </c>
       <c r="J162" s="3"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K162" s="3"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>354</v>
       </c>
@@ -6761,8 +6922,9 @@
         <v>343</v>
       </c>
       <c r="J163" s="3"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K163" s="3"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>354</v>
       </c>
@@ -6791,8 +6953,9 @@
         <v>343</v>
       </c>
       <c r="J164" s="3"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K164" s="3"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>354</v>
       </c>
@@ -6821,8 +6984,9 @@
         <v>343</v>
       </c>
       <c r="J165" s="3"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K165" s="3"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>354</v>
       </c>
@@ -6851,8 +7015,9 @@
         <v>343</v>
       </c>
       <c r="J166" s="3"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K166" s="3"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>354</v>
       </c>
@@ -6881,8 +7046,9 @@
         <v>343</v>
       </c>
       <c r="J167" s="3"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K167" s="3"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>354</v>
       </c>
@@ -6911,8 +7077,9 @@
         <v>343</v>
       </c>
       <c r="J168" s="3"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K168" s="3"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>354</v>
       </c>
@@ -6941,8 +7108,9 @@
         <v>343</v>
       </c>
       <c r="J169" s="3"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K169" s="3"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>354</v>
       </c>
@@ -6971,8 +7139,9 @@
         <v>343</v>
       </c>
       <c r="J170" s="3"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K170" s="3"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>354</v>
       </c>
@@ -7001,8 +7170,9 @@
         <v>343</v>
       </c>
       <c r="J171" s="3"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K171" s="3"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>354</v>
       </c>
@@ -7031,8 +7201,9 @@
         <v>343</v>
       </c>
       <c r="J172" s="3"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K172" s="3"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>354</v>
       </c>
@@ -7061,8 +7232,9 @@
         <v>343</v>
       </c>
       <c r="J173" s="3"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K173" s="3"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>354</v>
       </c>
@@ -7091,8 +7263,9 @@
         <v>343</v>
       </c>
       <c r="J174" s="3"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K174" s="3"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>354</v>
       </c>
@@ -7121,8 +7294,9 @@
         <v>343</v>
       </c>
       <c r="J175" s="3"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K175" s="3"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>354</v>
       </c>
@@ -7151,8 +7325,9 @@
         <v>343</v>
       </c>
       <c r="J176" s="3"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K176" s="3"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>354</v>
       </c>
@@ -7181,8 +7356,9 @@
         <v>343</v>
       </c>
       <c r="J177" s="3"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K177" s="3"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>354</v>
       </c>
@@ -7211,8 +7387,9 @@
         <v>343</v>
       </c>
       <c r="J178" s="3"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K178" s="3"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>354</v>
       </c>
@@ -7241,8 +7418,9 @@
         <v>343</v>
       </c>
       <c r="J179" s="3"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K179" s="3"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>354</v>
       </c>
@@ -7271,8 +7449,9 @@
         <v>343</v>
       </c>
       <c r="J180" s="3"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K180" s="3"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>354</v>
       </c>
@@ -7301,8 +7480,9 @@
         <v>343</v>
       </c>
       <c r="J181" s="3"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K181" s="3"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>354</v>
       </c>
@@ -7331,8 +7511,9 @@
         <v>343</v>
       </c>
       <c r="J182" s="3"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K182" s="3"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>354</v>
       </c>
@@ -7361,8 +7542,9 @@
         <v>343</v>
       </c>
       <c r="J183" s="3"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K183" s="3"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>354</v>
       </c>
@@ -7391,8 +7573,9 @@
         <v>343</v>
       </c>
       <c r="J184" s="3"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K184" s="3"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>354</v>
       </c>
@@ -7421,8 +7604,9 @@
         <v>343</v>
       </c>
       <c r="J185" s="3"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K185" s="3"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>354</v>
       </c>
@@ -7451,8 +7635,9 @@
         <v>343</v>
       </c>
       <c r="J186" s="3"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K186" s="3"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>354</v>
       </c>
@@ -7481,8 +7666,9 @@
         <v>343</v>
       </c>
       <c r="J187" s="3"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K187" s="3"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>354</v>
       </c>
@@ -7511,8 +7697,9 @@
         <v>343</v>
       </c>
       <c r="J188" s="3"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K188" s="3"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>354</v>
       </c>
@@ -7541,8 +7728,9 @@
         <v>343</v>
       </c>
       <c r="J189" s="3"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K189" s="3"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>354</v>
       </c>
@@ -7571,8 +7759,9 @@
         <v>343</v>
       </c>
       <c r="J190" s="3"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K190" s="3"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>354</v>
       </c>
@@ -7601,8 +7790,9 @@
         <v>343</v>
       </c>
       <c r="J191" s="3"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K191" s="3"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>354</v>
       </c>
@@ -7631,8 +7821,9 @@
         <v>343</v>
       </c>
       <c r="J192" s="3"/>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K192" s="3"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>354</v>
       </c>
@@ -7661,8 +7852,9 @@
         <v>343</v>
       </c>
       <c r="J193" s="3"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K193" s="3"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>354</v>
       </c>
@@ -7691,8 +7883,9 @@
         <v>343</v>
       </c>
       <c r="J194" s="3"/>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K194" s="3"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>354</v>
       </c>
@@ -7721,8 +7914,9 @@
         <v>343</v>
       </c>
       <c r="J195" s="3"/>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K195" s="3"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>354</v>
       </c>
@@ -7751,8 +7945,9 @@
         <v>343</v>
       </c>
       <c r="J196" s="3"/>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K196" s="3"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>354</v>
       </c>
@@ -7781,8 +7976,9 @@
         <v>343</v>
       </c>
       <c r="J197" s="3"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K197" s="3"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>354</v>
       </c>
@@ -7811,8 +8007,9 @@
         <v>343</v>
       </c>
       <c r="J198" s="3"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K198" s="3"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>354</v>
       </c>
@@ -7841,8 +8038,9 @@
         <v>343</v>
       </c>
       <c r="J199" s="3"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K199" s="3"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>354</v>
       </c>
@@ -7871,8 +8069,9 @@
         <v>343</v>
       </c>
       <c r="J200" s="3"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K200" s="3"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>354</v>
       </c>
@@ -7901,8 +8100,9 @@
         <v>343</v>
       </c>
       <c r="J201" s="3"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K201" s="3"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>354</v>
       </c>
@@ -7931,8 +8131,9 @@
         <v>343</v>
       </c>
       <c r="J202" s="3"/>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K202" s="3"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>354</v>
       </c>
@@ -7961,8 +8162,9 @@
         <v>343</v>
       </c>
       <c r="J203" s="3"/>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K203" s="3"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>354</v>
       </c>
@@ -7991,8 +8193,9 @@
         <v>343</v>
       </c>
       <c r="J204" s="3"/>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K204" s="3"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>354</v>
       </c>
@@ -8021,8 +8224,9 @@
         <v>343</v>
       </c>
       <c r="J205" s="3"/>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K205" s="3"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>354</v>
       </c>
@@ -8051,8 +8255,9 @@
         <v>343</v>
       </c>
       <c r="J206" s="3"/>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K206" s="3"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>354</v>
       </c>
@@ -8081,8 +8286,9 @@
         <v>343</v>
       </c>
       <c r="J207" s="3"/>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K207" s="3"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>354</v>
       </c>
@@ -8111,8 +8317,9 @@
         <v>343</v>
       </c>
       <c r="J208" s="3"/>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K208" s="3"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>354</v>
       </c>
@@ -8141,8 +8348,9 @@
         <v>343</v>
       </c>
       <c r="J209" s="3"/>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K209" s="3"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>354</v>
       </c>
@@ -8171,8 +8379,9 @@
         <v>343</v>
       </c>
       <c r="J210" s="3"/>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K210" s="3"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>354</v>
       </c>
@@ -8201,8 +8410,9 @@
         <v>343</v>
       </c>
       <c r="J211" s="3"/>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K211" s="3"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>354</v>
       </c>
@@ -8231,8 +8441,9 @@
         <v>343</v>
       </c>
       <c r="J212" s="3"/>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K212" s="3"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>354</v>
       </c>
@@ -8261,8 +8472,9 @@
         <v>343</v>
       </c>
       <c r="J213" s="3"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K213" s="3"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>354</v>
       </c>
@@ -8291,8 +8503,9 @@
         <v>343</v>
       </c>
       <c r="J214" s="3"/>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K214" s="3"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>354</v>
       </c>
@@ -8321,8 +8534,9 @@
         <v>343</v>
       </c>
       <c r="J215" s="3"/>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K215" s="3"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>354</v>
       </c>
@@ -8351,8 +8565,9 @@
         <v>343</v>
       </c>
       <c r="J216" s="3"/>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K216" s="3"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>354</v>
       </c>
@@ -8381,8 +8596,9 @@
         <v>343</v>
       </c>
       <c r="J217" s="3"/>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K217" s="3"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>354</v>
       </c>
@@ -8411,8 +8627,9 @@
         <v>343</v>
       </c>
       <c r="J218" s="3"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K218" s="3"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>354</v>
       </c>
@@ -8441,8 +8658,9 @@
         <v>343</v>
       </c>
       <c r="J219" s="3"/>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K219" s="3"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>354</v>
       </c>
@@ -8471,8 +8689,9 @@
         <v>343</v>
       </c>
       <c r="J220" s="3"/>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K220" s="3"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>354</v>
       </c>
@@ -8501,8 +8720,9 @@
         <v>343</v>
       </c>
       <c r="J221" s="3"/>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K221" s="3"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>354</v>
       </c>
@@ -8531,8 +8751,9 @@
         <v>343</v>
       </c>
       <c r="J222" s="3"/>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K222" s="3"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>354</v>
       </c>
@@ -8561,8 +8782,9 @@
         <v>343</v>
       </c>
       <c r="J223" s="3"/>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K223" s="3"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>354</v>
       </c>
@@ -8591,8 +8813,9 @@
         <v>343</v>
       </c>
       <c r="J224" s="3"/>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K224" s="3"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>354</v>
       </c>
@@ -8621,8 +8844,9 @@
         <v>343</v>
       </c>
       <c r="J225" s="3"/>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K225" s="3"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>354</v>
       </c>
@@ -8651,8 +8875,9 @@
         <v>343</v>
       </c>
       <c r="J226" s="3"/>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K226" s="3"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>354</v>
       </c>
@@ -8681,8 +8906,9 @@
         <v>343</v>
       </c>
       <c r="J227" s="3"/>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K227" s="3"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>354</v>
       </c>
@@ -8711,8 +8937,9 @@
         <v>343</v>
       </c>
       <c r="J228" s="3"/>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K228" s="3"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>354</v>
       </c>
@@ -8741,8 +8968,9 @@
         <v>343</v>
       </c>
       <c r="J229" s="3"/>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K229" s="3"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>354</v>
       </c>
@@ -8771,8 +8999,9 @@
         <v>343</v>
       </c>
       <c r="J230" s="3"/>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K230" s="3"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>354</v>
       </c>
@@ -8801,8 +9030,9 @@
         <v>343</v>
       </c>
       <c r="J231" s="3"/>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K231" s="3"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>354</v>
       </c>
@@ -8831,8 +9061,9 @@
         <v>343</v>
       </c>
       <c r="J232" s="3"/>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K232" s="3"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>354</v>
       </c>
@@ -8861,8 +9092,9 @@
         <v>343</v>
       </c>
       <c r="J233" s="3"/>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K233" s="3"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>354</v>
       </c>
@@ -8891,8 +9123,9 @@
         <v>343</v>
       </c>
       <c r="J234" s="3"/>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K234" s="3"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>354</v>
       </c>
@@ -8921,8 +9154,9 @@
         <v>343</v>
       </c>
       <c r="J235" s="3"/>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K235" s="3"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>354</v>
       </c>
@@ -8951,8 +9185,9 @@
         <v>343</v>
       </c>
       <c r="J236" s="3"/>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K236" s="3"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>354</v>
       </c>
@@ -8981,8 +9216,9 @@
         <v>343</v>
       </c>
       <c r="J237" s="3"/>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K237" s="3"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>354</v>
       </c>
@@ -9011,8 +9247,9 @@
         <v>343</v>
       </c>
       <c r="J238" s="3"/>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K238" s="3"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>354</v>
       </c>
@@ -9041,8 +9278,9 @@
         <v>343</v>
       </c>
       <c r="J239" s="3"/>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K239" s="3"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>354</v>
       </c>
@@ -9071,8 +9309,9 @@
         <v>343</v>
       </c>
       <c r="J240" s="3"/>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K240" s="3"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>354</v>
       </c>
@@ -9101,8 +9340,9 @@
         <v>343</v>
       </c>
       <c r="J241" s="3"/>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K241" s="3"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>354</v>
       </c>
@@ -9131,8 +9371,9 @@
         <v>343</v>
       </c>
       <c r="J242" s="3"/>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K242" s="3"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>354</v>
       </c>
@@ -9161,8 +9402,9 @@
         <v>343</v>
       </c>
       <c r="J243" s="3"/>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K243" s="3"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>354</v>
       </c>
@@ -9191,8 +9433,9 @@
         <v>343</v>
       </c>
       <c r="J244" s="3"/>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K244" s="3"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>354</v>
       </c>
@@ -9221,8 +9464,9 @@
         <v>343</v>
       </c>
       <c r="J245" s="3"/>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K245" s="3"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>354</v>
       </c>
@@ -9251,8 +9495,9 @@
         <v>343</v>
       </c>
       <c r="J246" s="3"/>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K246" s="3"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>354</v>
       </c>
@@ -9281,8 +9526,9 @@
         <v>343</v>
       </c>
       <c r="J247" s="3"/>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K247" s="3"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>354</v>
       </c>
@@ -9311,8 +9557,9 @@
         <v>343</v>
       </c>
       <c r="J248" s="3"/>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K248" s="3"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>354</v>
       </c>
@@ -9341,8 +9588,9 @@
         <v>343</v>
       </c>
       <c r="J249" s="3"/>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K249" s="3"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>354</v>
       </c>
@@ -9371,8 +9619,9 @@
         <v>343</v>
       </c>
       <c r="J250" s="3"/>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K250" s="3"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>354</v>
       </c>
@@ -9401,8 +9650,9 @@
         <v>343</v>
       </c>
       <c r="J251" s="3"/>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K251" s="3"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>354</v>
       </c>
@@ -9431,8 +9681,9 @@
         <v>343</v>
       </c>
       <c r="J252" s="3"/>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K252" s="3"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>354</v>
       </c>
@@ -9461,8 +9712,9 @@
         <v>343</v>
       </c>
       <c r="J253" s="3"/>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K253" s="3"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>354</v>
       </c>
@@ -9491,8 +9743,9 @@
         <v>343</v>
       </c>
       <c r="J254" s="3"/>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K254" s="3"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>354</v>
       </c>
@@ -9521,8 +9774,9 @@
         <v>343</v>
       </c>
       <c r="J255" s="3"/>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K255" s="3"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>354</v>
       </c>
@@ -9551,8 +9805,9 @@
         <v>343</v>
       </c>
       <c r="J256" s="3"/>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K256" s="3"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>354</v>
       </c>
@@ -9581,8 +9836,9 @@
         <v>343</v>
       </c>
       <c r="J257" s="3"/>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K257" s="3"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>354</v>
       </c>
@@ -9611,8 +9867,9 @@
         <v>343</v>
       </c>
       <c r="J258" s="3"/>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K258" s="3"/>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>354</v>
       </c>
@@ -9641,8 +9898,9 @@
         <v>343</v>
       </c>
       <c r="J259" s="3"/>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K259" s="3"/>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>354</v>
       </c>
@@ -9671,8 +9929,9 @@
         <v>343</v>
       </c>
       <c r="J260" s="3"/>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K260" s="3"/>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>354</v>
       </c>
@@ -9701,8 +9960,9 @@
         <v>343</v>
       </c>
       <c r="J261" s="3"/>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K261" s="3"/>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>354</v>
       </c>
@@ -9731,8 +9991,9 @@
         <v>343</v>
       </c>
       <c r="J262" s="3"/>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K262" s="3"/>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>354</v>
       </c>
@@ -9761,8 +10022,9 @@
         <v>343</v>
       </c>
       <c r="J263" s="3"/>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K263" s="3"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>354</v>
       </c>
@@ -9791,8 +10053,9 @@
         <v>343</v>
       </c>
       <c r="J264" s="3"/>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K264" s="3"/>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>354</v>
       </c>
@@ -9821,8 +10084,9 @@
         <v>343</v>
       </c>
       <c r="J265" s="3"/>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K265" s="3"/>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>354</v>
       </c>
@@ -9851,8 +10115,9 @@
         <v>343</v>
       </c>
       <c r="J266" s="3"/>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K266" s="3"/>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>354</v>
       </c>
@@ -9881,8 +10146,9 @@
         <v>343</v>
       </c>
       <c r="J267" s="3"/>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K267" s="3"/>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>354</v>
       </c>
@@ -9911,8 +10177,9 @@
         <v>343</v>
       </c>
       <c r="J268" s="3"/>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K268" s="3"/>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>354</v>
       </c>
@@ -9941,8 +10208,9 @@
         <v>343</v>
       </c>
       <c r="J269" s="3"/>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K269" s="3"/>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>354</v>
       </c>
@@ -9971,8 +10239,9 @@
         <v>343</v>
       </c>
       <c r="J270" s="3"/>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K270" s="3"/>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>354</v>
       </c>
@@ -10001,8 +10270,9 @@
         <v>343</v>
       </c>
       <c r="J271" s="3"/>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K271" s="3"/>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>354</v>
       </c>
@@ -10031,8 +10301,9 @@
         <v>343</v>
       </c>
       <c r="J272" s="3"/>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K272" s="3"/>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>354</v>
       </c>
@@ -10061,8 +10332,9 @@
         <v>343</v>
       </c>
       <c r="J273" s="3"/>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K273" s="3"/>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>354</v>
       </c>
@@ -10091,8 +10363,9 @@
         <v>343</v>
       </c>
       <c r="J274" s="3"/>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K274" s="3"/>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>354</v>
       </c>
@@ -10121,8 +10394,9 @@
         <v>343</v>
       </c>
       <c r="J275" s="3"/>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K275" s="3"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>354</v>
       </c>
@@ -10151,8 +10425,9 @@
         <v>343</v>
       </c>
       <c r="J276" s="3"/>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K276" s="3"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>354</v>
       </c>
@@ -10181,8 +10456,9 @@
         <v>343</v>
       </c>
       <c r="J277" s="3"/>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K277" s="3"/>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>354</v>
       </c>
@@ -10211,8 +10487,9 @@
         <v>343</v>
       </c>
       <c r="J278" s="3"/>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K278" s="3"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>354</v>
       </c>
@@ -10241,8 +10518,9 @@
         <v>343</v>
       </c>
       <c r="J279" s="3"/>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K279" s="3"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>354</v>
       </c>
@@ -10271,8 +10549,9 @@
         <v>343</v>
       </c>
       <c r="J280" s="3"/>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K280" s="3"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>354</v>
       </c>
@@ -10301,8 +10580,9 @@
         <v>343</v>
       </c>
       <c r="J281" s="3"/>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K281" s="3"/>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>354</v>
       </c>
@@ -10331,8 +10611,9 @@
         <v>343</v>
       </c>
       <c r="J282" s="3"/>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K282" s="3"/>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>354</v>
       </c>
@@ -10361,8 +10642,9 @@
         <v>343</v>
       </c>
       <c r="J283" s="3"/>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K283" s="3"/>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>354</v>
       </c>
@@ -10391,8 +10673,9 @@
         <v>343</v>
       </c>
       <c r="J284" s="3"/>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K284" s="3"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>354</v>
       </c>
@@ -10421,8 +10704,9 @@
         <v>343</v>
       </c>
       <c r="J285" s="3"/>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K285" s="3"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>354</v>
       </c>
@@ -10451,8 +10735,9 @@
         <v>343</v>
       </c>
       <c r="J286" s="3"/>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K286" s="3"/>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>354</v>
       </c>
@@ -10481,8 +10766,9 @@
         <v>343</v>
       </c>
       <c r="J287" s="3"/>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K287" s="3"/>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>354</v>
       </c>
@@ -10511,8 +10797,9 @@
         <v>343</v>
       </c>
       <c r="J288" s="3"/>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K288" s="3"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>354</v>
       </c>
@@ -10541,8 +10828,9 @@
         <v>343</v>
       </c>
       <c r="J289" s="3"/>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K289" s="3"/>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>354</v>
       </c>
@@ -10571,8 +10859,9 @@
         <v>343</v>
       </c>
       <c r="J290" s="3"/>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K290" s="3"/>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>354</v>
       </c>
@@ -10601,8 +10890,9 @@
         <v>343</v>
       </c>
       <c r="J291" s="3"/>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K291" s="3"/>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>354</v>
       </c>
@@ -10631,8 +10921,9 @@
         <v>343</v>
       </c>
       <c r="J292" s="3"/>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K292" s="3"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>354</v>
       </c>
@@ -10661,8 +10952,9 @@
         <v>343</v>
       </c>
       <c r="J293" s="3"/>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K293" s="3"/>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>354</v>
       </c>
@@ -10691,8 +10983,9 @@
         <v>343</v>
       </c>
       <c r="J294" s="3"/>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K294" s="3"/>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>354</v>
       </c>
@@ -10721,8 +11014,9 @@
         <v>343</v>
       </c>
       <c r="J295" s="3"/>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K295" s="3"/>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>354</v>
       </c>
@@ -10751,8 +11045,9 @@
         <v>343</v>
       </c>
       <c r="J296" s="3"/>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K296" s="3"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>354</v>
       </c>
@@ -10781,8 +11076,9 @@
         <v>343</v>
       </c>
       <c r="J297" s="3"/>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K297" s="3"/>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>354</v>
       </c>
@@ -10811,8 +11107,9 @@
         <v>343</v>
       </c>
       <c r="J298" s="3"/>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K298" s="3"/>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>354</v>
       </c>
@@ -10841,8 +11138,9 @@
         <v>343</v>
       </c>
       <c r="J299" s="3"/>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K299" s="3"/>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>354</v>
       </c>
@@ -10871,8 +11169,9 @@
         <v>343</v>
       </c>
       <c r="J300" s="3"/>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K300" s="3"/>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>354</v>
       </c>
@@ -10901,8 +11200,9 @@
         <v>343</v>
       </c>
       <c r="J301" s="3"/>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K301" s="3"/>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>354</v>
       </c>
@@ -10931,8 +11231,9 @@
         <v>343</v>
       </c>
       <c r="J302" s="3"/>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K302" s="3"/>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>354</v>
       </c>
@@ -10961,8 +11262,9 @@
         <v>343</v>
       </c>
       <c r="J303" s="3"/>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K303" s="3"/>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>354</v>
       </c>
@@ -10991,8 +11293,9 @@
         <v>343</v>
       </c>
       <c r="J304" s="3"/>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K304" s="3"/>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>354</v>
       </c>
@@ -11021,8 +11324,9 @@
         <v>343</v>
       </c>
       <c r="J305" s="3"/>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K305" s="3"/>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>354</v>
       </c>
@@ -11051,8 +11355,9 @@
         <v>343</v>
       </c>
       <c r="J306" s="3"/>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K306" s="3"/>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>354</v>
       </c>
@@ -11081,8 +11386,9 @@
         <v>343</v>
       </c>
       <c r="J307" s="3"/>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K307" s="3"/>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>354</v>
       </c>
@@ -11111,8 +11417,9 @@
         <v>343</v>
       </c>
       <c r="J308" s="3"/>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K308" s="3"/>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>354</v>
       </c>
@@ -11141,8 +11448,9 @@
         <v>343</v>
       </c>
       <c r="J309" s="3"/>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K309" s="3"/>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>354</v>
       </c>
@@ -11171,8 +11479,9 @@
         <v>343</v>
       </c>
       <c r="J310" s="3"/>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K310" s="3"/>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>354</v>
       </c>
@@ -11201,8 +11510,9 @@
         <v>343</v>
       </c>
       <c r="J311" s="3"/>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K311" s="3"/>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>354</v>
       </c>
@@ -11231,8 +11541,9 @@
         <v>343</v>
       </c>
       <c r="J312" s="3"/>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K312" s="3"/>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>354</v>
       </c>
@@ -11261,8 +11572,9 @@
         <v>343</v>
       </c>
       <c r="J313" s="3"/>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K313" s="3"/>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>354</v>
       </c>
@@ -11291,8 +11603,9 @@
         <v>343</v>
       </c>
       <c r="J314" s="3"/>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K314" s="3"/>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>354</v>
       </c>
@@ -11321,8 +11634,9 @@
         <v>343</v>
       </c>
       <c r="J315" s="3"/>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K315" s="3"/>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>354</v>
       </c>
@@ -11351,8 +11665,9 @@
         <v>343</v>
       </c>
       <c r="J316" s="3"/>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K316" s="3"/>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>354</v>
       </c>
@@ -11381,8 +11696,9 @@
         <v>343</v>
       </c>
       <c r="J317" s="3"/>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K317" s="3"/>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>354</v>
       </c>
@@ -11411,8 +11727,9 @@
         <v>343</v>
       </c>
       <c r="J318" s="3"/>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K318" s="3"/>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>354</v>
       </c>
@@ -11441,8 +11758,9 @@
         <v>343</v>
       </c>
       <c r="J319" s="3"/>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K319" s="3"/>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>354</v>
       </c>
@@ -11471,8 +11789,9 @@
         <v>343</v>
       </c>
       <c r="J320" s="3"/>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K320" s="3"/>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>354</v>
       </c>
@@ -11501,8 +11820,9 @@
         <v>343</v>
       </c>
       <c r="J321" s="3"/>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K321" s="3"/>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>354</v>
       </c>
@@ -11531,8 +11851,9 @@
         <v>343</v>
       </c>
       <c r="J322" s="3"/>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K322" s="3"/>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>354</v>
       </c>
@@ -11561,8 +11882,9 @@
         <v>343</v>
       </c>
       <c r="J323" s="3"/>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K323" s="3"/>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>354</v>
       </c>
@@ -11591,8 +11913,9 @@
         <v>343</v>
       </c>
       <c r="J324" s="3"/>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K324" s="3"/>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>354</v>
       </c>
@@ -11621,8 +11944,9 @@
         <v>343</v>
       </c>
       <c r="J325" s="3"/>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K325" s="3"/>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>354</v>
       </c>
@@ -11651,8 +11975,9 @@
         <v>343</v>
       </c>
       <c r="J326" s="3"/>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K326" s="3"/>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>354</v>
       </c>
@@ -11681,8 +12006,9 @@
         <v>343</v>
       </c>
       <c r="J327" s="3"/>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K327" s="3"/>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>354</v>
       </c>
@@ -11711,8 +12037,9 @@
         <v>343</v>
       </c>
       <c r="J328" s="3"/>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K328" s="3"/>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>354</v>
       </c>
@@ -11741,8 +12068,9 @@
         <v>343</v>
       </c>
       <c r="J329" s="3"/>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K329" s="3"/>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>354</v>
       </c>
@@ -11771,8 +12099,9 @@
         <v>343</v>
       </c>
       <c r="J330" s="3"/>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K330" s="3"/>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>355</v>
       </c>
@@ -11801,8 +12130,9 @@
         <v>343</v>
       </c>
       <c r="J331" s="3"/>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K331" s="3"/>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>354</v>
       </c>
@@ -11831,6 +12161,7 @@
         <v>343</v>
       </c>
       <c r="J332" s="3"/>
+      <c r="K332" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J144" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/data/NASCseq.xlsx
+++ b/data/NASCseq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\文档\NetSarang Computer\7\Xftp\Temporary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48388FA-46A5-49FA-9723-B1D3A6E85BD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55B3186-538F-45DE-8B0E-8AC9C2025350}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="495" windowWidth="28800" windowHeight="16455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="455">
   <si>
     <t>Run</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1113,6 +1113,305 @@
   <si>
     <t>GSE128273_NASCseq_K562</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSE128273_NASCseq_K562_SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>GSE128273_NASCseq_K562_SE</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>B07</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>B09</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>D04</t>
+  </si>
+  <si>
+    <t>D05</t>
+  </si>
+  <si>
+    <t>D06</t>
+  </si>
+  <si>
+    <t>D07</t>
+  </si>
+  <si>
+    <t>D08</t>
+  </si>
+  <si>
+    <t>D09</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>E04</t>
+  </si>
+  <si>
+    <t>E05</t>
+  </si>
+  <si>
+    <t>E06</t>
+  </si>
+  <si>
+    <t>E07</t>
+  </si>
+  <si>
+    <t>E08</t>
+  </si>
+  <si>
+    <t>E09</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t>F09</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>G01</t>
+  </si>
+  <si>
+    <t>G02</t>
+  </si>
+  <si>
+    <t>G03</t>
+  </si>
+  <si>
+    <t>G04</t>
+  </si>
+  <si>
+    <t>G05</t>
+  </si>
+  <si>
+    <t>G06</t>
+  </si>
+  <si>
+    <t>G07</t>
+  </si>
+  <si>
+    <t>G08</t>
+  </si>
+  <si>
+    <t>G09</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>H01</t>
+  </si>
+  <si>
+    <t>H02</t>
+  </si>
+  <si>
+    <t>H03</t>
+  </si>
+  <si>
+    <t>H04</t>
+  </si>
+  <si>
+    <t>H05</t>
+  </si>
+  <si>
+    <t>H06</t>
+  </si>
+  <si>
+    <t>H07</t>
+  </si>
+  <si>
+    <t>H08</t>
+  </si>
+  <si>
+    <t>H09</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>H12</t>
   </si>
 </sst>
 </file>
@@ -1560,11 +1859,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K332"/>
+  <dimension ref="A1:K428"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K324" sqref="K324"/>
+      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B333" sqref="B333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12163,6 +12462,2982 @@
       <c r="J332" s="3"/>
       <c r="K332" s="3"/>
     </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D333" s="4">
+        <v>0</v>
+      </c>
+      <c r="E333" s="4">
+        <v>3</v>
+      </c>
+      <c r="F333" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G333" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H333" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I333" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J333" s="4"/>
+      <c r="K333" s="4"/>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D334" s="4">
+        <v>0</v>
+      </c>
+      <c r="E334" s="4">
+        <v>3</v>
+      </c>
+      <c r="F334" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G334" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H334" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I334" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J334" s="4"/>
+      <c r="K334" s="4"/>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D335" s="4">
+        <v>50</v>
+      </c>
+      <c r="E335" s="4">
+        <v>3</v>
+      </c>
+      <c r="F335" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G335" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H335" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I335" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J335" s="4"/>
+      <c r="K335" s="4"/>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A336" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D336" s="4">
+        <v>50</v>
+      </c>
+      <c r="E336" s="4">
+        <v>3</v>
+      </c>
+      <c r="F336" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G336" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H336" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I336" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J336" s="4"/>
+      <c r="K336" s="4"/>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A337" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D337" s="4">
+        <v>50</v>
+      </c>
+      <c r="E337" s="4">
+        <v>3</v>
+      </c>
+      <c r="F337" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G337" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H337" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I337" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J337" s="4"/>
+      <c r="K337" s="4"/>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A338" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D338" s="4">
+        <v>50</v>
+      </c>
+      <c r="E338" s="4">
+        <v>3</v>
+      </c>
+      <c r="F338" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G338" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H338" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I338" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J338" s="4"/>
+      <c r="K338" s="4"/>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A339" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D339" s="4">
+        <v>50</v>
+      </c>
+      <c r="E339" s="4">
+        <v>3</v>
+      </c>
+      <c r="F339" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G339" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H339" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I339" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J339" s="4"/>
+      <c r="K339" s="4"/>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A340" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D340" s="4">
+        <v>50</v>
+      </c>
+      <c r="E340" s="4">
+        <v>3</v>
+      </c>
+      <c r="F340" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G340" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H340" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I340" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J340" s="4"/>
+      <c r="K340" s="4"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A341" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D341" s="4">
+        <v>50</v>
+      </c>
+      <c r="E341" s="4">
+        <v>3</v>
+      </c>
+      <c r="F341" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G341" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H341" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I341" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J341" s="4"/>
+      <c r="K341" s="4"/>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A342" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D342" s="4">
+        <v>50</v>
+      </c>
+      <c r="E342" s="4">
+        <v>3</v>
+      </c>
+      <c r="F342" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G342" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H342" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I342" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J342" s="4"/>
+      <c r="K342" s="4"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A343" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D343" s="4">
+        <v>50</v>
+      </c>
+      <c r="E343" s="4">
+        <v>3</v>
+      </c>
+      <c r="F343" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G343" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H343" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I343" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J343" s="4"/>
+      <c r="K343" s="4"/>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A344" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D344" s="4">
+        <v>50</v>
+      </c>
+      <c r="E344" s="4">
+        <v>3</v>
+      </c>
+      <c r="F344" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G344" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H344" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I344" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J344" s="4"/>
+      <c r="K344" s="4"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A345" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D345" s="4">
+        <v>0</v>
+      </c>
+      <c r="E345" s="4">
+        <v>3</v>
+      </c>
+      <c r="F345" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G345" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H345" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I345" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J345" s="4"/>
+      <c r="K345" s="4"/>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A346" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D346" s="4">
+        <v>0</v>
+      </c>
+      <c r="E346" s="4">
+        <v>3</v>
+      </c>
+      <c r="F346" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G346" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H346" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I346" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J346" s="4"/>
+      <c r="K346" s="4"/>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A347" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D347" s="4">
+        <v>50</v>
+      </c>
+      <c r="E347" s="4">
+        <v>3</v>
+      </c>
+      <c r="F347" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G347" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H347" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I347" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J347" s="4"/>
+      <c r="K347" s="4"/>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A348" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D348" s="4">
+        <v>50</v>
+      </c>
+      <c r="E348" s="4">
+        <v>3</v>
+      </c>
+      <c r="F348" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G348" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H348" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I348" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J348" s="4"/>
+      <c r="K348" s="4"/>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A349" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D349" s="4">
+        <v>50</v>
+      </c>
+      <c r="E349" s="4">
+        <v>3</v>
+      </c>
+      <c r="F349" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G349" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H349" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I349" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J349" s="4"/>
+      <c r="K349" s="4"/>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D350" s="4">
+        <v>50</v>
+      </c>
+      <c r="E350" s="4">
+        <v>3</v>
+      </c>
+      <c r="F350" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G350" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H350" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I350" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J350" s="4"/>
+      <c r="K350" s="4"/>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A351" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D351" s="4">
+        <v>50</v>
+      </c>
+      <c r="E351" s="4">
+        <v>3</v>
+      </c>
+      <c r="F351" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G351" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H351" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I351" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J351" s="4"/>
+      <c r="K351" s="4"/>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A352" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D352" s="4">
+        <v>50</v>
+      </c>
+      <c r="E352" s="4">
+        <v>3</v>
+      </c>
+      <c r="F352" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G352" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H352" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I352" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J352" s="4"/>
+      <c r="K352" s="4"/>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A353" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D353" s="4">
+        <v>50</v>
+      </c>
+      <c r="E353" s="4">
+        <v>3</v>
+      </c>
+      <c r="F353" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G353" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H353" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I353" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J353" s="4"/>
+      <c r="K353" s="4"/>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A354" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D354" s="4">
+        <v>50</v>
+      </c>
+      <c r="E354" s="4">
+        <v>3</v>
+      </c>
+      <c r="F354" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G354" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H354" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I354" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J354" s="4"/>
+      <c r="K354" s="4"/>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A355" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D355" s="4">
+        <v>50</v>
+      </c>
+      <c r="E355" s="4">
+        <v>3</v>
+      </c>
+      <c r="F355" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G355" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H355" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I355" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J355" s="4"/>
+      <c r="K355" s="4"/>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D356" s="4">
+        <v>50</v>
+      </c>
+      <c r="E356" s="4">
+        <v>3</v>
+      </c>
+      <c r="F356" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G356" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H356" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I356" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J356" s="4"/>
+      <c r="K356" s="4"/>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D357" s="4">
+        <v>0</v>
+      </c>
+      <c r="E357" s="4">
+        <v>3</v>
+      </c>
+      <c r="F357" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G357" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H357" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I357" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J357" s="4"/>
+      <c r="K357" s="4"/>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D358" s="4">
+        <v>0</v>
+      </c>
+      <c r="E358" s="4">
+        <v>3</v>
+      </c>
+      <c r="F358" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G358" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H358" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I358" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J358" s="4"/>
+      <c r="K358" s="4"/>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D359" s="4">
+        <v>50</v>
+      </c>
+      <c r="E359" s="4">
+        <v>3</v>
+      </c>
+      <c r="F359" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G359" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H359" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I359" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J359" s="4"/>
+      <c r="K359" s="4"/>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D360" s="4">
+        <v>50</v>
+      </c>
+      <c r="E360" s="4">
+        <v>3</v>
+      </c>
+      <c r="F360" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G360" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H360" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I360" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J360" s="4"/>
+      <c r="K360" s="4"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A361" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D361" s="4">
+        <v>50</v>
+      </c>
+      <c r="E361" s="4">
+        <v>3</v>
+      </c>
+      <c r="F361" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G361" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H361" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I361" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J361" s="4"/>
+      <c r="K361" s="4"/>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A362" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D362" s="4">
+        <v>50</v>
+      </c>
+      <c r="E362" s="4">
+        <v>3</v>
+      </c>
+      <c r="F362" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G362" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H362" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I362" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J362" s="4"/>
+      <c r="K362" s="4"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D363" s="4">
+        <v>50</v>
+      </c>
+      <c r="E363" s="4">
+        <v>3</v>
+      </c>
+      <c r="F363" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G363" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H363" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I363" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J363" s="4"/>
+      <c r="K363" s="4"/>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D364" s="4">
+        <v>50</v>
+      </c>
+      <c r="E364" s="4">
+        <v>3</v>
+      </c>
+      <c r="F364" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G364" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H364" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I364" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J364" s="4"/>
+      <c r="K364" s="4"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D365" s="4">
+        <v>50</v>
+      </c>
+      <c r="E365" s="4">
+        <v>3</v>
+      </c>
+      <c r="F365" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G365" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H365" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I365" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J365" s="4"/>
+      <c r="K365" s="4"/>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A366" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D366" s="4">
+        <v>50</v>
+      </c>
+      <c r="E366" s="4">
+        <v>3</v>
+      </c>
+      <c r="F366" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G366" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H366" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I366" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J366" s="4"/>
+      <c r="K366" s="4"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D367" s="4">
+        <v>50</v>
+      </c>
+      <c r="E367" s="4">
+        <v>3</v>
+      </c>
+      <c r="F367" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G367" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H367" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I367" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J367" s="4"/>
+      <c r="K367" s="4"/>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D368" s="4">
+        <v>50</v>
+      </c>
+      <c r="E368" s="4">
+        <v>3</v>
+      </c>
+      <c r="F368" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G368" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H368" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I368" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J368" s="4"/>
+      <c r="K368" s="4"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D369" s="4">
+        <v>0</v>
+      </c>
+      <c r="E369" s="4">
+        <v>3</v>
+      </c>
+      <c r="F369" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G369" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H369" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I369" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J369" s="4"/>
+      <c r="K369" s="4"/>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D370" s="4">
+        <v>0</v>
+      </c>
+      <c r="E370" s="4">
+        <v>3</v>
+      </c>
+      <c r="F370" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G370" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H370" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I370" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J370" s="4"/>
+      <c r="K370" s="4"/>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D371" s="4">
+        <v>50</v>
+      </c>
+      <c r="E371" s="4">
+        <v>3</v>
+      </c>
+      <c r="F371" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G371" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H371" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I371" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J371" s="4"/>
+      <c r="K371" s="4"/>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A372" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D372" s="4">
+        <v>50</v>
+      </c>
+      <c r="E372" s="4">
+        <v>3</v>
+      </c>
+      <c r="F372" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G372" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H372" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I372" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J372" s="4"/>
+      <c r="K372" s="4"/>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A373" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D373" s="4">
+        <v>50</v>
+      </c>
+      <c r="E373" s="4">
+        <v>3</v>
+      </c>
+      <c r="F373" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G373" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H373" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I373" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J373" s="4"/>
+      <c r="K373" s="4"/>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A374" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D374" s="4">
+        <v>50</v>
+      </c>
+      <c r="E374" s="4">
+        <v>3</v>
+      </c>
+      <c r="F374" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G374" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H374" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I374" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J374" s="4"/>
+      <c r="K374" s="4"/>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A375" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C375" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D375" s="4">
+        <v>50</v>
+      </c>
+      <c r="E375" s="4">
+        <v>3</v>
+      </c>
+      <c r="F375" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G375" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H375" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I375" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J375" s="4"/>
+      <c r="K375" s="4"/>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A376" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D376" s="4">
+        <v>50</v>
+      </c>
+      <c r="E376" s="4">
+        <v>3</v>
+      </c>
+      <c r="F376" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G376" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H376" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I376" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J376" s="4"/>
+      <c r="K376" s="4"/>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A377" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C377" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D377" s="4">
+        <v>50</v>
+      </c>
+      <c r="E377" s="4">
+        <v>3</v>
+      </c>
+      <c r="F377" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G377" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H377" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I377" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J377" s="4"/>
+      <c r="K377" s="4"/>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A378" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D378" s="4">
+        <v>50</v>
+      </c>
+      <c r="E378" s="4">
+        <v>3</v>
+      </c>
+      <c r="F378" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G378" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H378" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I378" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J378" s="4"/>
+      <c r="K378" s="4"/>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A379" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D379" s="4">
+        <v>50</v>
+      </c>
+      <c r="E379" s="4">
+        <v>3</v>
+      </c>
+      <c r="F379" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G379" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H379" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I379" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J379" s="4"/>
+      <c r="K379" s="4"/>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A380" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C380" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D380" s="4">
+        <v>50</v>
+      </c>
+      <c r="E380" s="4">
+        <v>3</v>
+      </c>
+      <c r="F380" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G380" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H380" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I380" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J380" s="4"/>
+      <c r="K380" s="4"/>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A381" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C381" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D381" s="4">
+        <v>0</v>
+      </c>
+      <c r="E381" s="4">
+        <v>3</v>
+      </c>
+      <c r="F381" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G381" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H381" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I381" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J381" s="4"/>
+      <c r="K381" s="4"/>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A382" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C382" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D382" s="4">
+        <v>0</v>
+      </c>
+      <c r="E382" s="4">
+        <v>3</v>
+      </c>
+      <c r="F382" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G382" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H382" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I382" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J382" s="4"/>
+      <c r="K382" s="4"/>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A383" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D383" s="4">
+        <v>50</v>
+      </c>
+      <c r="E383" s="4">
+        <v>3</v>
+      </c>
+      <c r="F383" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G383" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H383" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I383" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J383" s="4"/>
+      <c r="K383" s="4"/>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A384" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D384" s="4">
+        <v>50</v>
+      </c>
+      <c r="E384" s="4">
+        <v>3</v>
+      </c>
+      <c r="F384" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G384" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H384" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I384" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J384" s="4"/>
+      <c r="K384" s="4"/>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D385" s="4">
+        <v>50</v>
+      </c>
+      <c r="E385" s="4">
+        <v>3</v>
+      </c>
+      <c r="F385" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G385" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H385" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I385" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J385" s="4"/>
+      <c r="K385" s="4"/>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A386" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D386" s="4">
+        <v>50</v>
+      </c>
+      <c r="E386" s="4">
+        <v>3</v>
+      </c>
+      <c r="F386" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G386" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H386" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I386" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J386" s="4"/>
+      <c r="K386" s="4"/>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A387" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C387" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D387" s="4">
+        <v>50</v>
+      </c>
+      <c r="E387" s="4">
+        <v>3</v>
+      </c>
+      <c r="F387" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G387" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H387" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I387" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J387" s="4"/>
+      <c r="K387" s="4"/>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A388" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C388" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D388" s="4">
+        <v>50</v>
+      </c>
+      <c r="E388" s="4">
+        <v>3</v>
+      </c>
+      <c r="F388" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G388" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H388" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I388" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J388" s="4"/>
+      <c r="K388" s="4"/>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A389" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C389" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D389" s="4">
+        <v>50</v>
+      </c>
+      <c r="E389" s="4">
+        <v>3</v>
+      </c>
+      <c r="F389" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G389" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H389" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I389" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J389" s="4"/>
+      <c r="K389" s="4"/>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A390" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C390" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D390" s="4">
+        <v>50</v>
+      </c>
+      <c r="E390" s="4">
+        <v>3</v>
+      </c>
+      <c r="F390" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G390" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H390" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I390" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J390" s="4"/>
+      <c r="K390" s="4"/>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A391" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C391" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D391" s="4">
+        <v>50</v>
+      </c>
+      <c r="E391" s="4">
+        <v>3</v>
+      </c>
+      <c r="F391" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G391" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H391" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I391" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J391" s="4"/>
+      <c r="K391" s="4"/>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A392" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C392" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D392" s="4">
+        <v>50</v>
+      </c>
+      <c r="E392" s="4">
+        <v>3</v>
+      </c>
+      <c r="F392" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G392" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H392" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I392" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J392" s="4"/>
+      <c r="K392" s="4"/>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A393" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C393" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D393" s="4">
+        <v>0</v>
+      </c>
+      <c r="E393" s="4">
+        <v>3</v>
+      </c>
+      <c r="F393" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G393" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H393" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I393" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J393" s="4"/>
+      <c r="K393" s="4"/>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A394" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C394" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D394" s="4">
+        <v>0</v>
+      </c>
+      <c r="E394" s="4">
+        <v>3</v>
+      </c>
+      <c r="F394" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G394" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H394" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I394" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J394" s="4"/>
+      <c r="K394" s="4"/>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A395" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C395" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D395" s="4">
+        <v>50</v>
+      </c>
+      <c r="E395" s="4">
+        <v>3</v>
+      </c>
+      <c r="F395" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G395" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H395" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I395" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J395" s="4"/>
+      <c r="K395" s="4"/>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A396" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C396" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D396" s="4">
+        <v>50</v>
+      </c>
+      <c r="E396" s="4">
+        <v>3</v>
+      </c>
+      <c r="F396" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G396" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H396" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I396" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J396" s="4"/>
+      <c r="K396" s="4"/>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A397" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B397" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C397" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D397" s="4">
+        <v>50</v>
+      </c>
+      <c r="E397" s="4">
+        <v>3</v>
+      </c>
+      <c r="F397" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G397" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H397" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I397" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J397" s="4"/>
+      <c r="K397" s="4"/>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A398" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C398" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D398" s="4">
+        <v>50</v>
+      </c>
+      <c r="E398" s="4">
+        <v>3</v>
+      </c>
+      <c r="F398" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G398" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H398" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I398" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J398" s="4"/>
+      <c r="K398" s="4"/>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A399" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C399" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D399" s="4">
+        <v>50</v>
+      </c>
+      <c r="E399" s="4">
+        <v>3</v>
+      </c>
+      <c r="F399" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G399" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H399" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I399" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J399" s="4"/>
+      <c r="K399" s="4"/>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A400" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C400" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D400" s="4">
+        <v>50</v>
+      </c>
+      <c r="E400" s="4">
+        <v>3</v>
+      </c>
+      <c r="F400" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G400" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H400" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I400" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J400" s="4"/>
+      <c r="K400" s="4"/>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A401" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C401" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D401" s="4">
+        <v>50</v>
+      </c>
+      <c r="E401" s="4">
+        <v>3</v>
+      </c>
+      <c r="F401" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G401" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H401" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I401" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J401" s="4"/>
+      <c r="K401" s="4"/>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A402" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C402" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D402" s="4">
+        <v>50</v>
+      </c>
+      <c r="E402" s="4">
+        <v>3</v>
+      </c>
+      <c r="F402" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G402" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H402" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I402" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J402" s="4"/>
+      <c r="K402" s="4"/>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A403" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C403" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D403" s="4">
+        <v>50</v>
+      </c>
+      <c r="E403" s="4">
+        <v>3</v>
+      </c>
+      <c r="F403" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G403" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H403" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I403" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J403" s="4"/>
+      <c r="K403" s="4"/>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A404" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C404" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D404" s="4">
+        <v>50</v>
+      </c>
+      <c r="E404" s="4">
+        <v>3</v>
+      </c>
+      <c r="F404" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G404" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H404" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I404" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J404" s="4"/>
+      <c r="K404" s="4"/>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A405" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C405" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D405" s="4">
+        <v>0</v>
+      </c>
+      <c r="E405" s="4">
+        <v>3</v>
+      </c>
+      <c r="F405" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G405" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H405" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I405" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J405" s="4"/>
+      <c r="K405" s="4"/>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A406" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D406" s="4">
+        <v>0</v>
+      </c>
+      <c r="E406" s="4">
+        <v>3</v>
+      </c>
+      <c r="F406" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G406" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H406" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I406" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J406" s="4"/>
+      <c r="K406" s="4"/>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A407" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C407" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D407" s="4">
+        <v>50</v>
+      </c>
+      <c r="E407" s="4">
+        <v>3</v>
+      </c>
+      <c r="F407" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G407" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H407" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I407" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J407" s="4"/>
+      <c r="K407" s="4"/>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A408" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C408" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D408" s="4">
+        <v>50</v>
+      </c>
+      <c r="E408" s="4">
+        <v>3</v>
+      </c>
+      <c r="F408" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G408" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H408" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I408" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J408" s="4"/>
+      <c r="K408" s="4"/>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A409" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B409" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C409" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D409" s="4">
+        <v>50</v>
+      </c>
+      <c r="E409" s="4">
+        <v>3</v>
+      </c>
+      <c r="F409" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G409" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H409" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I409" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J409" s="4"/>
+      <c r="K409" s="4"/>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A410" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B410" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C410" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D410" s="4">
+        <v>50</v>
+      </c>
+      <c r="E410" s="4">
+        <v>3</v>
+      </c>
+      <c r="F410" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G410" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H410" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I410" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J410" s="4"/>
+      <c r="K410" s="4"/>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A411" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C411" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D411" s="4">
+        <v>50</v>
+      </c>
+      <c r="E411" s="4">
+        <v>3</v>
+      </c>
+      <c r="F411" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G411" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H411" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I411" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J411" s="4"/>
+      <c r="K411" s="4"/>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A412" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C412" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D412" s="4">
+        <v>50</v>
+      </c>
+      <c r="E412" s="4">
+        <v>3</v>
+      </c>
+      <c r="F412" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G412" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H412" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I412" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J412" s="4"/>
+      <c r="K412" s="4"/>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A413" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C413" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D413" s="4">
+        <v>50</v>
+      </c>
+      <c r="E413" s="4">
+        <v>3</v>
+      </c>
+      <c r="F413" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G413" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H413" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I413" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J413" s="4"/>
+      <c r="K413" s="4"/>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A414" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B414" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C414" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D414" s="4">
+        <v>50</v>
+      </c>
+      <c r="E414" s="4">
+        <v>3</v>
+      </c>
+      <c r="F414" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G414" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H414" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I414" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J414" s="4"/>
+      <c r="K414" s="4"/>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A415" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B415" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C415" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D415" s="4">
+        <v>50</v>
+      </c>
+      <c r="E415" s="4">
+        <v>3</v>
+      </c>
+      <c r="F415" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G415" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H415" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I415" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J415" s="4"/>
+      <c r="K415" s="4"/>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A416" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B416" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C416" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D416" s="4">
+        <v>50</v>
+      </c>
+      <c r="E416" s="4">
+        <v>3</v>
+      </c>
+      <c r="F416" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G416" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H416" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I416" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J416" s="4"/>
+      <c r="K416" s="4"/>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A417" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C417" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D417" s="4">
+        <v>0</v>
+      </c>
+      <c r="E417" s="4">
+        <v>3</v>
+      </c>
+      <c r="F417" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G417" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H417" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I417" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J417" s="4"/>
+      <c r="K417" s="4"/>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A418" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C418" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D418" s="4">
+        <v>0</v>
+      </c>
+      <c r="E418" s="4">
+        <v>3</v>
+      </c>
+      <c r="F418" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G418" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H418" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I418" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J418" s="4"/>
+      <c r="K418" s="4"/>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A419" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C419" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D419" s="4">
+        <v>50</v>
+      </c>
+      <c r="E419" s="4">
+        <v>3</v>
+      </c>
+      <c r="F419" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G419" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H419" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I419" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J419" s="4"/>
+      <c r="K419" s="4"/>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A420" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C420" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D420" s="4">
+        <v>50</v>
+      </c>
+      <c r="E420" s="4">
+        <v>3</v>
+      </c>
+      <c r="F420" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G420" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H420" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I420" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J420" s="4"/>
+      <c r="K420" s="4"/>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A421" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C421" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D421" s="4">
+        <v>50</v>
+      </c>
+      <c r="E421" s="4">
+        <v>3</v>
+      </c>
+      <c r="F421" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G421" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H421" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I421" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J421" s="4"/>
+      <c r="K421" s="4"/>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A422" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C422" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D422" s="4">
+        <v>50</v>
+      </c>
+      <c r="E422" s="4">
+        <v>3</v>
+      </c>
+      <c r="F422" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G422" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H422" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I422" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J422" s="4"/>
+      <c r="K422" s="4"/>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A423" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C423" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D423" s="4">
+        <v>50</v>
+      </c>
+      <c r="E423" s="4">
+        <v>3</v>
+      </c>
+      <c r="F423" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G423" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H423" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I423" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J423" s="4"/>
+      <c r="K423" s="4"/>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A424" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C424" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D424" s="4">
+        <v>50</v>
+      </c>
+      <c r="E424" s="4">
+        <v>3</v>
+      </c>
+      <c r="F424" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G424" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H424" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I424" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J424" s="4"/>
+      <c r="K424" s="4"/>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A425" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C425" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D425" s="4">
+        <v>50</v>
+      </c>
+      <c r="E425" s="4">
+        <v>3</v>
+      </c>
+      <c r="F425" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G425" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H425" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I425" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J425" s="4"/>
+      <c r="K425" s="4"/>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A426" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C426" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D426" s="4">
+        <v>50</v>
+      </c>
+      <c r="E426" s="4">
+        <v>3</v>
+      </c>
+      <c r="F426" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G426" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H426" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I426" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J426" s="4"/>
+      <c r="K426" s="4"/>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A427" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C427" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D427" s="4">
+        <v>50</v>
+      </c>
+      <c r="E427" s="4">
+        <v>3</v>
+      </c>
+      <c r="F427" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G427" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H427" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I427" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J427" s="4"/>
+      <c r="K427" s="4"/>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A428" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C428" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D428" s="4">
+        <v>50</v>
+      </c>
+      <c r="E428" s="4">
+        <v>3</v>
+      </c>
+      <c r="F428" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G428" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H428" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I428" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J428" s="4"/>
+      <c r="K428" s="4"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J144" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
